--- a/TestContentReport.xlsx
+++ b/TestContentReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Question Link</t>
   </si>
@@ -62,64 +62,7 @@
     <t>MQ Questions</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>v</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>dg</t>
-  </si>
-  <si>
-    <t>https://assess.testpad.chitkara.edu.in/questions/preview/68caefcc856581b5b5e72972</t>
-  </si>
-  <si>
-    <t>68caefcc856581b5b5e72972</t>
-  </si>
-  <si>
-    <t>MCQ</t>
-  </si>
-  <si>
-    <t>mcq1</t>
-  </si>
-  <si>
-    <t>asdf</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>Question is locked</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>se</t>
-  </si>
-  <si>
-    <t>sf</t>
-  </si>
-  <si>
-    <t>https://assess.testpad.chitkara.edu.in/questions/preview/68caf00e856581b5b5e72974</t>
-  </si>
-  <si>
-    <t>68caf00e856581b5b5e72974</t>
-  </si>
-  <si>
-    <t>mcq3</t>
-  </si>
-  <si>
-    <t>sdf</t>
   </si>
 </sst>
 </file>
@@ -164,7 +107,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -222,83 +165,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" t="s">
         <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1.0</v>
       </c>
     </row>
   </sheetData>
